--- a/config.xlsx
+++ b/config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1100" windowWidth="24880" windowHeight="13940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="nextflow.config" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>//</t>
   </si>
@@ -73,9 +73,6 @@
     <t>${params.work_dir}/scripts</t>
   </si>
   <si>
-    <t>data_name</t>
-  </si>
-  <si>
     <t>high_ld_regions_fname</t>
   </si>
   <si>
@@ -118,21 +115,12 @@
     <t>max_plink_cores</t>
   </si>
   <si>
-    <t>process.queue</t>
-  </si>
-  <si>
     <t>Directory in which the Nextflow scripts can be found</t>
   </si>
   <si>
-    <t>Where inputs can be found?</t>
-  </si>
-  <si>
     <t>Where output should go?</t>
   </si>
   <si>
-    <t>Name of the input data file</t>
-  </si>
-  <si>
     <t>Do we have sex information?</t>
   </si>
   <si>
@@ -154,9 +142,6 @@
     <t>User specified value</t>
   </si>
   <si>
-    <t>raw-GWA-data</t>
-  </si>
-  <si>
     <t>high_LD_regions_37.ssv</t>
   </si>
   <si>
@@ -260,6 +245,24 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>Directory where inputs can be found?</t>
+  </si>
+  <si>
+    <t>Input file name(s). Any Unix glob (.e.g,  YRI means YRI.bed, YRI.bim, YRI.fam; * means all)</t>
+  </si>
+  <si>
+    <t>input_pat</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>YRI</t>
+  </si>
+  <si>
+    <t>queue</t>
   </si>
 </sst>
 </file>
@@ -298,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +311,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,10 +337,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -670,7 +680,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -685,27 +695,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="G1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -713,13 +721,11 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="G2"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>26</v>
+      <c r="A3" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -727,207 +733,196 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="G3"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>27</v>
+      <c r="A4" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="G5"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="G7"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G8"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G9"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>0</v>
@@ -935,62 +930,62 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="16100" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="nextflow.config" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>//</t>
   </si>
@@ -263,6 +263,63 @@
   </si>
   <si>
     <t>queue</t>
+  </si>
+  <si>
+    <t>#AWS options</t>
+  </si>
+  <si>
+    <t>AWS access key (confidential)</t>
+  </si>
+  <si>
+    <t>AWS secret key (very confidential)</t>
+  </si>
+  <si>
+    <t>accessKey</t>
+  </si>
+  <si>
+    <t>secretKey</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>AWS region</t>
+  </si>
+  <si>
+    <t>AWS AMI to be used</t>
+  </si>
+  <si>
+    <t>ami-9dc5a68a</t>
+  </si>
+  <si>
+    <t>AMI</t>
+  </si>
+  <si>
+    <t>AWS instance type</t>
+  </si>
+  <si>
+    <t>instanceType</t>
+  </si>
+  <si>
+    <t>subnet-8ee22c7</t>
+  </si>
+  <si>
+    <t>bootStorageSize</t>
+  </si>
+  <si>
+    <t>How big boot image should be</t>
+  </si>
+  <si>
+    <t>20GB</t>
+  </si>
+  <si>
+    <t>AWS maximum number of instances to be used</t>
+  </si>
+  <si>
+    <t>maxInstances</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -677,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -988,6 +1045,79 @@
         <v>56</v>
       </c>
     </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16100" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="10100" yWindow="640" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="nextflow.config" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
   <si>
     <t>//</t>
   </si>
@@ -301,9 +301,6 @@
     <t>instanceType</t>
   </si>
   <si>
-    <t>subnet-8ee22c7</t>
-  </si>
-  <si>
     <t>bootStorageSize</t>
   </si>
   <si>
@@ -320,6 +317,30 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>Image with LaTeX installed</t>
+  </si>
+  <si>
+    <t>latexImage</t>
+  </si>
+  <si>
+    <t>m4.xlarge</t>
+  </si>
+  <si>
+    <t>AWS EFS/sharedStorage ID</t>
+  </si>
+  <si>
+    <t>sharedStorage</t>
+  </si>
+  <si>
+    <t>Mount of Amazon EFS/sharedStorage</t>
+  </si>
+  <si>
+    <t>sharedStorageMount</t>
+  </si>
+  <si>
+    <t>/mnt/shared</t>
   </si>
 </sst>
 </file>
@@ -387,8 +408,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -400,11 +423,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -734,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1047,75 +1072,102 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
         <v>89</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C35" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>91</v>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10100" yWindow="640" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31280" windowHeight="21380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="nextflow.config" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <author>Scott</author>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0">
+    <comment ref="A14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>//</t>
   </si>
@@ -73,6 +73,9 @@
     <t>${params.work_dir}/scripts</t>
   </si>
   <si>
+    <t>data_name</t>
+  </si>
+  <si>
     <t>high_ld_regions_fname</t>
   </si>
   <si>
@@ -115,12 +118,18 @@
     <t>max_plink_cores</t>
   </si>
   <si>
+    <t>process.queue</t>
+  </si>
+  <si>
     <t>Directory in which the Nextflow scripts can be found</t>
   </si>
   <si>
     <t>Where output should go?</t>
   </si>
   <si>
+    <t>Name of the input data file</t>
+  </si>
+  <si>
     <t>Do we have sex information?</t>
   </si>
   <si>
@@ -142,6 +151,9 @@
     <t>User specified value</t>
   </si>
   <si>
+    <t>raw-GWA-data</t>
+  </si>
+  <si>
     <t>high_LD_regions_37.ssv</t>
   </si>
   <si>
@@ -208,15 +220,9 @@
     <t>plinkImage</t>
   </si>
   <si>
-    <t>banshee1221/h3agwas-plink</t>
-  </si>
-  <si>
     <t>Image with R installed</t>
   </si>
   <si>
-    <t>banshee1221/h3agwas-r</t>
-  </si>
-  <si>
     <t>rEngineImage</t>
   </si>
   <si>
@@ -262,85 +268,19 @@
     <t>YRI</t>
   </si>
   <si>
-    <t>queue</t>
-  </si>
-  <si>
-    <t>#AWS options</t>
-  </si>
-  <si>
-    <t>AWS access key (confidential)</t>
-  </si>
-  <si>
-    <t>AWS secret key (very confidential)</t>
-  </si>
-  <si>
-    <t>accessKey</t>
-  </si>
-  <si>
-    <t>secretKey</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>AWS region</t>
-  </si>
-  <si>
-    <t>AWS AMI to be used</t>
-  </si>
-  <si>
-    <t>ami-9dc5a68a</t>
-  </si>
-  <si>
-    <t>AMI</t>
-  </si>
-  <si>
-    <t>AWS instance type</t>
-  </si>
-  <si>
-    <t>instanceType</t>
-  </si>
-  <si>
-    <t>bootStorageSize</t>
-  </si>
-  <si>
-    <t>How big boot image should be</t>
-  </si>
-  <si>
-    <t>20GB</t>
-  </si>
-  <si>
-    <t>AWS maximum number of instances to be used</t>
-  </si>
-  <si>
-    <t>maxInstances</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Image with LaTeX installed</t>
-  </si>
-  <si>
-    <t>latexImage</t>
-  </si>
-  <si>
-    <t>m4.xlarge</t>
-  </si>
-  <si>
-    <t>AWS EFS/sharedStorage ID</t>
-  </si>
-  <si>
-    <t>sharedStorage</t>
-  </si>
-  <si>
-    <t>Mount of Amazon EFS/sharedStorage</t>
-  </si>
-  <si>
-    <t>sharedStorageMount</t>
-  </si>
-  <si>
-    <t>/mnt/shared</t>
+    <t>Image with TexLive</t>
+  </si>
+  <si>
+    <t>texliveImage</t>
+  </si>
+  <si>
+    <t>h3abionet_org/h3agwas-texlive</t>
+  </si>
+  <si>
+    <t>h3abionet_org/h3agwas-plink</t>
+  </si>
+  <si>
+    <t>h3abionet_org/h3agwas-rtools</t>
   </si>
 </sst>
 </file>
@@ -379,7 +319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,12 +329,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,28 +342,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -759,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -777,25 +706,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -806,8 +735,8 @@
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>67</v>
+      <c r="A3" t="s">
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -818,23 +747,23 @@
       <c r="G3"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>68</v>
+      <c r="A4" t="s">
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
+      <c r="A5" t="s">
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -846,7 +775,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -858,7 +787,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -866,35 +795,32 @@
       <c r="G7"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>26</v>
+      <c r="A8" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>32</v>
+      <c r="C8" t="s">
+        <v>35</v>
       </c>
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>59</v>
+      <c r="D9" t="s">
+        <v>36</v>
       </c>
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -902,16 +828,20 @@
       <c r="C10" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -922,252 +852,174 @@
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>66</v>
+      <c r="C22" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
         <v>74</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31280" windowHeight="21380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="nextflow.config" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
   <si>
     <t>//</t>
   </si>
@@ -202,9 +202,6 @@
     <t>#QC options</t>
   </si>
   <si>
-    <t>#Config o ptions</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
@@ -281,6 +278,18 @@
   </si>
   <si>
     <t>h3abionet_org/h3agwas-rtools</t>
+  </si>
+  <si>
+    <t>Image with gemma and plink</t>
+  </si>
+  <si>
+    <t>gemmaImage</t>
+  </si>
+  <si>
+    <t>h3abionet_org/h3agwas-gemma</t>
+  </si>
+  <si>
+    <t>#Config options</t>
   </si>
 </sst>
 </file>
@@ -293,6 +302,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,6 +339,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,10 +365,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -688,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -705,7 +722,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B1" t="s">
@@ -736,7 +753,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -748,16 +765,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
         <v>70</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
       </c>
       <c r="G4"/>
     </row>
@@ -786,7 +803,7 @@
       <c r="G6"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B7" t="s">
@@ -826,10 +843,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="G10"/>
     </row>
@@ -841,7 +858,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -852,7 +869,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -863,7 +880,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -874,7 +891,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -885,7 +902,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -896,7 +913,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -907,7 +924,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -918,7 +935,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -929,12 +946,12 @@
         <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>52</v>
+      <c r="A20" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -970,56 +987,67 @@
         <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>55</v>
+      <c r="A25" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
         <v>58</v>
       </c>
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
         <v>74</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>75</v>
       </c>
-      <c r="C28" t="s">
-        <v>76</v>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="3940" yWindow="1120" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="nextflow.config" sheetId="1" r:id="rId1"/>
@@ -274,9 +274,6 @@
     <t>h3abionet_org/h3agwas-texlive</t>
   </si>
   <si>
-    <t>h3abionet_org/h3agwas-plink</t>
-  </si>
-  <si>
     <t>h3abionet_org/h3agwas-rtools</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>#Config options</t>
+  </si>
+  <si>
+    <t>banshee1221/h3agwas-plink</t>
   </si>
 </sst>
 </file>
@@ -708,7 +708,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -951,7 +951,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1014,7 +1014,7 @@
         <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1025,7 +1025,7 @@
         <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1041,13 +1041,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
         <v>78</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>79</v>
-      </c>
-      <c r="C29" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="1120" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="13140" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="nextflow.config" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <author>Scott</author>
   </authors>
   <commentList>
-    <comment ref="A14" authorId="0">
+    <comment ref="A13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
   <si>
     <t>//</t>
   </si>
@@ -88,9 +88,6 @@
     <t>cut_het_low</t>
   </si>
   <si>
-    <t>cut_miss</t>
-  </si>
-  <si>
     <t>cut_diff_miss</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t>Remove individuals who have missingness rate above this</t>
   </si>
   <si>
-    <t>In the missingness report, use this as a cut-off. Makes sense to have the same as cut_geno.</t>
-  </si>
-  <si>
     <t>Remove SNPs with a missingness rate above this</t>
   </si>
   <si>
@@ -262,22 +256,85 @@
     <t>*</t>
   </si>
   <si>
-    <t>YRI</t>
-  </si>
-  <si>
     <t>Image with TexLive</t>
   </si>
   <si>
-    <t>texliveImage</t>
-  </si>
-  <si>
     <t>h3abionet_org/h3agwas-texlive</t>
   </si>
   <si>
     <t>h3abionet_org/h3agwas-rtools</t>
   </si>
   <si>
-    <t>Image with gemma and plink</t>
+    <t>latexImage</t>
+  </si>
+  <si>
+    <t>#Options only needed if converting from Illumina TOP/BOT</t>
+  </si>
+  <si>
+    <t>Are we using top/bot as input</t>
+  </si>
+  <si>
+    <t>topbot</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fam file -- provide a fam file in PLINK format </t>
+  </si>
+  <si>
+    <t>fam</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>Reference genome for your chip</t>
+  </si>
+  <si>
+    <t>/data/aux/Homo_sapiens.GRCh37.75.dna.toplevel.fa</t>
+  </si>
+  <si>
+    <t>SNP Merge table from NCBI (ftp.ncbi.nlm.nih.gov/snp/organisms/human_9606/database)</t>
+  </si>
+  <si>
+    <t>/data/aux/RsMergeArch.bcp.gz</t>
+  </si>
+  <si>
+    <t>vcf_merge_table</t>
+  </si>
+  <si>
+    <t>dbSNP list</t>
+  </si>
+  <si>
+    <t>/data/aux/All_20170403.vcf.gz</t>
+  </si>
+  <si>
+    <t>Illumina Chip Manifest</t>
+  </si>
+  <si>
+    <t>/data/aux/HumanOmni5-4-v1-0-D.csv</t>
+  </si>
+  <si>
+    <t>manifest</t>
+  </si>
+  <si>
+    <t>#Config options</t>
+  </si>
+  <si>
+    <t>BioPerl image</t>
+  </si>
+  <si>
+    <t>bioperlImage</t>
+  </si>
+  <si>
+    <t>bioperl/bioperl</t>
+  </si>
+  <si>
+    <t>Image with gemma installed</t>
   </si>
   <si>
     <t>gemmaImage</t>
@@ -286,10 +343,94 @@
     <t>h3abionet_org/h3agwas-gemma</t>
   </si>
   <si>
-    <t>#Config options</t>
+    <t>dbsnp_all_vcf</t>
+  </si>
+  <si>
+    <t>#Options for Amazon EC2</t>
+  </si>
+  <si>
+    <t>AMI</t>
+  </si>
+  <si>
+    <t>accessKey</t>
+  </si>
+  <si>
+    <t>secretKey</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>instanceType</t>
+  </si>
+  <si>
+    <t>bootStorageSize</t>
+  </si>
+  <si>
+    <t>maxInstances</t>
+  </si>
+  <si>
+    <t>ID of the Amazon AM to be used</t>
+  </si>
+  <si>
+    <t>Your access key</t>
+  </si>
+  <si>
+    <t>Your secret key</t>
+  </si>
+  <si>
+    <t>Region to execute in</t>
+  </si>
+  <si>
+    <t>Instance type</t>
+  </si>
+  <si>
+    <t>Storage for boot</t>
+  </si>
+  <si>
+    <t>sharedStorageID</t>
+  </si>
+  <si>
+    <t>Global storage for cluster (EFS)</t>
+  </si>
+  <si>
+    <t>How many instances</t>
+  </si>
+  <si>
+    <t>20GB</t>
+  </si>
+  <si>
+    <t>sharedStorageMount</t>
+  </si>
+  <si>
+    <t>/mnt/shared</t>
+  </si>
+  <si>
+    <t>Directory on Amazon cluster where scripts and data are</t>
+  </si>
+  <si>
+    <t>subnetID</t>
+  </si>
+  <si>
+    <t>ID of the Amazon subnet on which your cluster runs</t>
+  </si>
+  <si>
+    <t>m4.xlarge</t>
+  </si>
+  <si>
+    <t>eu-west-1</t>
+  </si>
+  <si>
+    <t>ami-9ca7b2fa</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>banshee1221/h3agwas-plink</t>
+  </si>
+  <si>
+    <t>sampleA</t>
   </si>
 </sst>
 </file>
@@ -344,7 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,8 +499,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -371,11 +514,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -705,17 +850,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="49.1640625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="2"/>
     <col min="7" max="7" width="10.83203125" style="2"/>
@@ -723,88 +868,88 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="G1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G3"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
         <v>69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
       </c>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G6"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -813,74 +958,74 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>35</v>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G10"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -891,7 +1036,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -902,7 +1047,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -913,97 +1058,97 @@
         <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
-        <v>80</v>
+      <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>0</v>
+      <c r="C21" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
-        <v>49</v>
+      <c r="C22" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
         <v>53</v>
       </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3" t="s">
+      <c r="B25" t="s">
         <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1013,41 +1158,215 @@
       <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="C26" t="s">
-        <v>81</v>
+      <c r="C26" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" t="s">
-        <v>75</v>
+        <v>94</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -262,7 +262,7 @@
     <t>h3abionet_org/h3agwas-texlive</t>
   </si>
   <si>
-    <t>h3abionet_org/h3agwas-rtools</t>
+    <t>h3abionet_org/h3agwas-plink</t>
   </si>
   <si>
     <t>latexImage</t>
@@ -427,10 +427,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>banshee1221/h3agwas-plink</t>
-  </si>
-  <si>
     <t>sampleA</t>
+  </si>
+  <si>
+    <t>h3abionet_org/h3agwas-r</t>
   </si>
 </sst>
 </file>
@@ -499,8 +499,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -514,13 +516,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -853,7 +857,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -916,7 +920,7 @@
         <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
         <v>69</v>
@@ -1148,7 +1152,7 @@
         <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1159,7 +1163,7 @@
         <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:4">

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="13140" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
@@ -52,9 +52,6 @@
     <t>work_dir</t>
   </si>
   <si>
-    <t>/$HOME/h3agwas</t>
-  </si>
-  <si>
     <t>input_dir</t>
   </si>
   <si>
@@ -431,6 +428,9 @@
   </si>
   <si>
     <t>h3abionet_org/h3agwas-r</t>
+  </si>
+  <si>
+    <t>/$PWD</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -857,7 +856,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -872,88 +871,88 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="G3"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
         <v>68</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" t="s">
-        <v>69</v>
       </c>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="G6"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -962,145 +961,145 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="G10"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
         <v>0</v>
@@ -1108,269 +1107,269 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
         <v>53</v>
       </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
         <v>55</v>
       </c>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" t="s">
         <v>93</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
         <v>96</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
         <v>75</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
         <v>79</v>
-      </c>
-      <c r="B32" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1600" yWindow="2180" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="nextflow.config" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="137">
   <si>
     <t>//</t>
   </si>
@@ -52,6 +52,9 @@
     <t>work_dir</t>
   </si>
   <si>
+    <t>/$HOME/h3agwas</t>
+  </si>
+  <si>
     <t>input_dir</t>
   </si>
   <si>
@@ -193,39 +196,12 @@
     <t>#QC options</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>Queue (name of queue that should be used IF job scheduler used, ignored otherwise)</t>
   </si>
   <si>
-    <t>#Docker options -- IGNORED if docker not used</t>
-  </si>
-  <si>
-    <t>Image with PLINK installed</t>
-  </si>
-  <si>
-    <t>plinkImage</t>
-  </si>
-  <si>
-    <t>Image with R installed</t>
-  </si>
-  <si>
-    <t>rEngineImage</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
     <t>0.343</t>
   </si>
   <si>
-    <t>0.254</t>
-  </si>
-  <si>
     <t>0.05</t>
   </si>
   <si>
@@ -253,184 +229,232 @@
     <t>*</t>
   </si>
   <si>
-    <t>Image with TexLive</t>
-  </si>
-  <si>
-    <t>h3abionet_org/h3agwas-texlive</t>
-  </si>
-  <si>
-    <t>h3abionet_org/h3agwas-plink</t>
-  </si>
-  <si>
-    <t>latexImage</t>
-  </si>
-  <si>
     <t>#Options only needed if converting from Illumina TOP/BOT</t>
   </si>
   <si>
-    <t>Are we using top/bot as input</t>
-  </si>
-  <si>
-    <t>topbot</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t xml:space="preserve">Fam file -- provide a fam file in PLINK format </t>
-  </si>
-  <si>
-    <t>fam</t>
+    <t>Illumina Chip Manifest</t>
+  </si>
+  <si>
+    <t>/data/aux/HumanOmni5-4-v1-0-D.csv</t>
+  </si>
+  <si>
+    <t>manifest</t>
+  </si>
+  <si>
+    <t>#Config options</t>
+  </si>
+  <si>
+    <t>#Options for Amazon EC2</t>
+  </si>
+  <si>
+    <t>AMI</t>
+  </si>
+  <si>
+    <t>accessKey</t>
+  </si>
+  <si>
+    <t>secretKey</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>instanceType</t>
+  </si>
+  <si>
+    <t>bootStorageSize</t>
+  </si>
+  <si>
+    <t>maxInstances</t>
+  </si>
+  <si>
+    <t>ID of the Amazon AM to be used</t>
+  </si>
+  <si>
+    <t>Your access key</t>
+  </si>
+  <si>
+    <t>Your secret key</t>
+  </si>
+  <si>
+    <t>Region to execute in</t>
+  </si>
+  <si>
+    <t>Instance type</t>
+  </si>
+  <si>
+    <t>Storage for boot</t>
+  </si>
+  <si>
+    <t>sharedStorageID</t>
+  </si>
+  <si>
+    <t>Global storage for cluster (EFS)</t>
+  </si>
+  <si>
+    <t>How many instances</t>
+  </si>
+  <si>
+    <t>20GB</t>
+  </si>
+  <si>
+    <t>sharedStorageMount</t>
+  </si>
+  <si>
+    <t>/mnt/shared</t>
+  </si>
+  <si>
+    <t>Directory on Amazon cluster where scripts and data are</t>
+  </si>
+  <si>
+    <t>subnetID</t>
+  </si>
+  <si>
+    <t>ID of the Amazon subnet on which your cluster runs</t>
+  </si>
+  <si>
+    <t>m4.xlarge</t>
+  </si>
+  <si>
+    <t>eu-west-1</t>
+  </si>
+  <si>
+    <t>ami-9ca7b2fa</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>sampleA</t>
+  </si>
+  <si>
+    <t>Chip description (can be same as manifest or has column with physical coordinates)</t>
+  </si>
+  <si>
+    <t>chipdescription</t>
+  </si>
+  <si>
+    <t>/external/diskA/novartis/metadata/HumanOmni5-4v1_B_Physical-and-Genetic-Coordinates.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strandreport </t>
+  </si>
+  <si>
+    <t>strandreport</t>
+  </si>
+  <si>
+    <t>0.150</t>
+  </si>
+  <si>
+    <t>Batch report</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>Batch column</t>
+  </si>
+  <si>
+    <t>batch_col</t>
+  </si>
+  <si>
+    <t>For doing batch QC</t>
+  </si>
+  <si>
+    <t>phenotype</t>
+  </si>
+  <si>
+    <t>Phenotype file (optional for batch analysis)</t>
+  </si>
+  <si>
+    <t>Phenotype column</t>
+  </si>
+  <si>
+    <t>pheno_col</t>
+  </si>
+  <si>
+    <t>if phenotype is false, doesn't matter</t>
+  </si>
+  <si>
+    <t>Case-control file</t>
+  </si>
+  <si>
+    <t>case_control</t>
+  </si>
+  <si>
+    <t>data.phe</t>
+  </si>
+  <si>
+    <t>Case-control column</t>
+  </si>
+  <si>
+    <t>case_control_col</t>
+  </si>
+  <si>
+    <t>pheno</t>
+  </si>
+  <si>
+    <t>String -- name of column (plink mpheno file). Ignored if case_control above is empty</t>
+  </si>
+  <si>
+    <t>if batch is empty, doesn't matter</t>
+  </si>
+  <si>
+    <t>If batch is empty, doesn’'t matter</t>
+  </si>
+  <si>
+    <t>Can use manifest</t>
+  </si>
+  <si>
+    <t>Output alignment (against which strand? Illumnia, dbSNP or reference)</t>
+  </si>
+  <si>
+    <t>output_align</t>
+  </si>
+  <si>
+    <t>topbottom</t>
+  </si>
+  <si>
+    <t>dbsnp or ref</t>
   </si>
   <si>
     <t>reference</t>
   </si>
   <si>
-    <t>Reference genome for your chip</t>
-  </si>
-  <si>
-    <t>/data/aux/Homo_sapiens.GRCh37.75.dna.toplevel.fa</t>
-  </si>
-  <si>
-    <t>SNP Merge table from NCBI (ftp.ncbi.nlm.nih.gov/snp/organisms/human_9606/database)</t>
-  </si>
-  <si>
-    <t>/data/aux/RsMergeArch.bcp.gz</t>
-  </si>
-  <si>
-    <t>vcf_merge_table</t>
-  </si>
-  <si>
-    <t>dbSNP list</t>
-  </si>
-  <si>
-    <t>/data/aux/All_20170403.vcf.gz</t>
-  </si>
-  <si>
-    <t>Illumina Chip Manifest</t>
-  </si>
-  <si>
-    <t>/data/aux/HumanOmni5-4-v1-0-D.csv</t>
-  </si>
-  <si>
-    <t>manifest</t>
-  </si>
-  <si>
-    <t>#Config options</t>
-  </si>
-  <si>
-    <t>BioPerl image</t>
-  </si>
-  <si>
-    <t>bioperlImage</t>
-  </si>
-  <si>
-    <t>bioperl/bioperl</t>
-  </si>
-  <si>
-    <t>Image with gemma installed</t>
-  </si>
-  <si>
-    <t>gemmaImage</t>
-  </si>
-  <si>
-    <t>h3abionet_org/h3agwas-gemma</t>
-  </si>
-  <si>
-    <t>dbsnp_all_vcf</t>
-  </si>
-  <si>
-    <t>#Options for Amazon EC2</t>
-  </si>
-  <si>
-    <t>AMI</t>
-  </si>
-  <si>
-    <t>accessKey</t>
-  </si>
-  <si>
-    <t>secretKey</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>instanceType</t>
-  </si>
-  <si>
-    <t>bootStorageSize</t>
-  </si>
-  <si>
-    <t>maxInstances</t>
-  </si>
-  <si>
-    <t>ID of the Amazon AM to be used</t>
-  </si>
-  <si>
-    <t>Your access key</t>
-  </si>
-  <si>
-    <t>Your secret key</t>
-  </si>
-  <si>
-    <t>Region to execute in</t>
-  </si>
-  <si>
-    <t>Instance type</t>
-  </si>
-  <si>
-    <t>Storage for boot</t>
-  </si>
-  <si>
-    <t>sharedStorageID</t>
-  </si>
-  <si>
-    <t>Global storage for cluster (EFS)</t>
-  </si>
-  <si>
-    <t>How many instances</t>
-  </si>
-  <si>
-    <t>20GB</t>
-  </si>
-  <si>
-    <t>sharedStorageMount</t>
-  </si>
-  <si>
-    <t>/mnt/shared</t>
-  </si>
-  <si>
-    <t>Directory on Amazon cluster where scripts and data are</t>
-  </si>
-  <si>
-    <t>subnetID</t>
-  </si>
-  <si>
-    <t>ID of the Amazon subnet on which your cluster runs</t>
-  </si>
-  <si>
-    <t>m4.xlarge</t>
-  </si>
-  <si>
-    <t>eu-west-1</t>
-  </si>
-  <si>
-    <t>ami-9ca7b2fa</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>sampleA</t>
-  </si>
-  <si>
-    <t>h3abionet_org/h3agwas-r</t>
-  </si>
-  <si>
-    <t>/$PWD</t>
+    <t>h3a37.ref</t>
+  </si>
+  <si>
+    <t>samplesheet</t>
+  </si>
+  <si>
+    <t>/data/aux/H3Africa_2017_20021485_A3_StrandReport_FDT.txt</t>
+  </si>
+  <si>
+    <t>Reference genome (entry for each position in chip)</t>
+  </si>
+  <si>
+    <t>/data/experiment/samples.xlx</t>
+  </si>
+  <si>
+    <t>Sample sheet (entry for each person)</t>
+  </si>
+  <si>
+    <t>Try to abbreviate participant IDs from sample sheet</t>
+  </si>
+  <si>
+    <t>abbrev</t>
+  </si>
+  <si>
+    <t>Which file has case_control info</t>
+  </si>
+  <si>
+    <t>site</t>
   </si>
 </sst>
 </file>
@@ -498,8 +522,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -515,15 +551,27 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -853,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -871,88 +919,88 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -961,415 +1009,484 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G10"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="2" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="2" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
         <v>86</v>
       </c>
-      <c r="B35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="B48" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B41" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>119</v>
-      </c>
-      <c r="B46" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>121</v>
-      </c>
-      <c r="B47" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="2180" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="12360" yWindow="1080" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="nextflow.config" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="147">
   <si>
     <t>//</t>
   </si>
@@ -325,9 +325,6 @@
     <t>eu-west-1</t>
   </si>
   <si>
-    <t>ami-9ca7b2fa</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -445,16 +442,49 @@
     <t>Sample sheet (entry for each person)</t>
   </si>
   <si>
-    <t>Try to abbreviate participant IDs from sample sheet</t>
-  </si>
-  <si>
-    <t>abbrev</t>
-  </si>
-  <si>
     <t>Which file has case_control info</t>
   </si>
   <si>
     <t>site</t>
+  </si>
+  <si>
+    <t>F X-chromome inbreeding coefficient : min for men</t>
+  </si>
+  <si>
+    <t>f_lo_male</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>F X-chromome inbreeding coefficient : max for women</t>
+  </si>
+  <si>
+    <t>f_hi_female</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>Used to check manifest sex versus X-chromosome sex</t>
+  </si>
+  <si>
+    <t>Regex for extracting IDs out of reports</t>
+  </si>
+  <si>
+    <t>idpat</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>.*_(.*)</t>
+  </si>
+  <si>
+    <t>0 means just use asis and is safe</t>
+  </si>
+  <si>
+    <t>ami-710b9108</t>
   </si>
 </sst>
 </file>
@@ -522,8 +552,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -551,7 +585,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -562,6 +596,8 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -572,6 +608,8 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -901,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -967,7 +1005,7 @@
         <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
         <v>60</v>
@@ -1065,7 +1103,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1136,356 +1174,384 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G19"/>
-      <c r="H19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20"/>
-      <c r="F20" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20"/>
-      <c r="H20" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>114</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21"/>
       <c r="F21" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="G21"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E22"/>
       <c r="F22" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G22"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23"/>
+        <v>102</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="G23"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="E24"/>
       <c r="F24" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G24"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G27"/>
-      <c r="H27" s="2"/>
+      <c r="A27" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>131</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30">
+        <v>128</v>
+      </c>
+      <c r="D30" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
+      </c>
+      <c r="D32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="3" t="s">
-        <v>67</v>
+      <c r="A33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" t="s">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>47</v>
+      <c r="A35" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
-        <v>68</v>
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" t="s">
-        <v>70</v>
+      <c r="A40" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
         <v>90</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>89</v>
       </c>
     </row>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="12360" yWindow="1080" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="151">
   <si>
     <t>//</t>
   </si>
@@ -175,9 +175,6 @@
     <t>Remove SNPs with HWE values in control below this. (A) 0.001 is conservative and a lower p value is probably OK but (B) any SNPs that you find interesting you should check manually if p value is below 1E-4</t>
   </si>
   <si>
-    <t>Remove individuals who are related more than this</t>
-  </si>
-  <si>
     <t>How much memory does PLINK need</t>
   </si>
   <si>
@@ -485,6 +482,21 @@
   </si>
   <si>
     <t>ami-710b9108</t>
+  </si>
+  <si>
+    <t>Remove one individuals in each pairwho are related more than this</t>
+  </si>
+  <si>
+    <t>Remove both individuals more related than this</t>
+  </si>
+  <si>
+    <t>super_pi_hat</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>Can only be if identical twins, sample mismatch, or same participant has multiple IDs</t>
   </si>
 </sst>
 </file>
@@ -939,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -987,7 +999,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -999,16 +1011,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
         <v>58</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
         <v>59</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
       </c>
       <c r="G4"/>
     </row>
@@ -1026,7 +1038,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1038,7 +1050,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -1077,10 +1089,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10"/>
     </row>
@@ -1092,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1103,7 +1115,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1114,7 +1126,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1125,7 +1137,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1136,7 +1148,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1147,7 +1159,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1158,401 +1170,415 @@
         <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F19" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21"/>
-      <c r="F21" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21"/>
-      <c r="H21" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E22"/>
       <c r="F22" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="G22"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>113</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23"/>
       <c r="F23" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G23"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="D24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24"/>
-      <c r="F24" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="G24"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>62</v>
+        <v>103</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
       </c>
       <c r="E25"/>
       <c r="F25" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G25"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" t="s">
-        <v>133</v>
+        <v>105</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E26"/>
       <c r="F26" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G26"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>65</v>
+      <c r="A28" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29"/>
-      <c r="H29" s="2"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>130</v>
+      <c r="D31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" t="s">
         <v>141</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C33" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D33" t="s">
         <v>143</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F33" t="s">
         <v>144</v>
       </c>
-      <c r="F32" t="s">
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
         <v>76</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
         <v>77</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
         <v>78</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" t="s">
-        <v>73</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
         <v>89</v>
+      </c>
+      <c r="B51" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="1080" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="20380" yWindow="2100" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="nextflow.config" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="155">
   <si>
     <t>//</t>
   </si>
@@ -497,13 +497,25 @@
   </si>
   <si>
     <t>Can only be if identical twins, sample mismatch, or same participant has multiple IDs</t>
+  </si>
+  <si>
+    <t>#Assoc test</t>
+  </si>
+  <si>
+    <t>Gemma num cores for relationship matrix (highly paralellisable)</t>
+  </si>
+  <si>
+    <t>gemma_plink_cores</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -534,8 +546,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,6 +573,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79646"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -564,7 +589,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -590,14 +615,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -610,6 +638,7 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -622,6 +651,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -951,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1427,157 +1457,173 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="3" t="s">
-        <v>66</v>
+      <c r="A36" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>46</v>
+      <c r="A38" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="3" t="s">
-        <v>67</v>
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" t="s">
-        <v>69</v>
+      <c r="A43" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
         <v>89</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>88</v>
       </c>
     </row>

--- a/config.xlsx
+++ b/config.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="171">
   <si>
     <t>//</t>
   </si>
@@ -106,18 +106,12 @@
     <t>pi_hat</t>
   </si>
   <si>
-    <t>plink_process_memory</t>
-  </si>
-  <si>
     <t>other_process_memory</t>
   </si>
   <si>
     <t>max_plink_cores</t>
   </si>
   <si>
-    <t>process.queue</t>
-  </si>
-  <si>
     <t>Directory in which the Nextflow scripts can be found</t>
   </si>
   <si>
@@ -505,10 +499,64 @@
     <t>Gemma num cores for relationship matrix (highly paralellisable)</t>
   </si>
   <si>
-    <t>gemma_plink_cores</t>
-  </si>
-  <si>
-    <t>24</t>
+    <t>big_time</t>
+  </si>
+  <si>
+    <t>24h</t>
+  </si>
+  <si>
+    <t>How long will gemma runs take</t>
+  </si>
+  <si>
+    <t>How much memory does gemma require?</t>
+  </si>
+  <si>
+    <t>5GB</t>
+  </si>
+  <si>
+    <t>5GB for 1000 samples, 1.6m SNPs</t>
+  </si>
+  <si>
+    <t>File with phenotypes and covariate data</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Should have header row. Columns separated by tabs</t>
+  </si>
+  <si>
+    <t>Names of phenotypes to be tested</t>
+  </si>
+  <si>
+    <t>weight,bmi/np.log10,blood_pressure</t>
+  </si>
+  <si>
+    <t>Comma separated, possibly with transform</t>
+  </si>
+  <si>
+    <t>Name s of covariates to be used</t>
+  </si>
+  <si>
+    <t>covariates</t>
+  </si>
+  <si>
+    <t>age,sex</t>
+  </si>
+  <si>
+    <t>Comma separated</t>
+  </si>
+  <si>
+    <t>plink_mem_req</t>
+  </si>
+  <si>
+    <t>gemma_mem_req</t>
+  </si>
+  <si>
+    <t>gemma_num_cores</t>
+  </si>
+  <si>
+    <t>queue</t>
   </si>
 </sst>
 </file>
@@ -981,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -999,25 +1047,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1029,7 +1077,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1041,22 +1089,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
         <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
       </c>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1068,7 +1116,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1080,7 +1128,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -1089,315 +1137,315 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G10"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B19" t="s">
+      <c r="F19" t="s">
         <v>148</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" t="s">
         <v>110</v>
-      </c>
-      <c r="B22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" t="s">
-        <v>112</v>
       </c>
       <c r="E22"/>
       <c r="F22" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G22"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" t="s">
         <v>113</v>
-      </c>
-      <c r="B23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" t="s">
-        <v>115</v>
       </c>
       <c r="E23"/>
       <c r="F23" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G23"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G24"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E25"/>
       <c r="F25" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G25"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E26"/>
       <c r="F26" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G26"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E27"/>
       <c r="F27" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G27"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
         <v>63</v>
       </c>
-      <c r="B29" t="s">
-        <v>65</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G30"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1405,226 +1453,290 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="F33" t="s">
         <v>142</v>
-      </c>
-      <c r="D33" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>121</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="3" t="s">
-        <v>66</v>
+      <c r="B38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" t="s">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>46</v>
+        <v>158</v>
+      </c>
+      <c r="F40" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>55</v>
+        <v>113</v>
+      </c>
+      <c r="D41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>101</v>
+        <v>164</v>
+      </c>
+      <c r="D42" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>145</v>
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>20</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>21</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>90</v>
+      <c r="A48" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
